--- a/data/macroeconomic/unemployment.xlsx
+++ b/data/macroeconomic/unemployment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\data\macroeconomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD249D8F-D4FE-4EC2-9C05-6B4E9B557F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB614A-E369-4C85-B653-79E12E062392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E1C52FB-F480-4962-A03C-CA3E40EEA9C5}"/>
   </bookViews>
@@ -48,7 +48,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +64,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC7B7B1-F262-45DD-91F8-1ADA0205E586}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,1690 +461,2290 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>39142</v>
-      </c>
-      <c r="B2">
-        <v>0.14817983834827797</v>
+        <v>36892</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16.622326481659027</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>39173</v>
-      </c>
-      <c r="B3">
-        <v>0.14274043058666808</v>
+        <v>36923</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17.43420624182221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>39203</v>
-      </c>
-      <c r="B4">
-        <v>0.13845757190727187</v>
+        <v>36951</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15.811933468430714</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>39234</v>
-      </c>
-      <c r="B5">
-        <v>0.12722129354551923</v>
+        <v>36982</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14.51507752039006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>39264</v>
-      </c>
-      <c r="B6">
-        <v>0.12190176568916171</v>
+        <v>37012</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14.035832905217315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>39295</v>
-      </c>
-      <c r="B7">
-        <v>0.11636769764515945</v>
+        <v>37043</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15.312343206140794</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>39326</v>
-      </c>
-      <c r="B8">
-        <v>0.11588081419238044</v>
+        <v>37073</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15.183814819180185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>39356</v>
-      </c>
-      <c r="B9">
-        <v>0.11297814591154388</v>
+        <v>37104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14.913511091006335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>39387</v>
-      </c>
-      <c r="B10">
-        <v>0.10801579490717733</v>
+        <v>37135</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14.074145894901372</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>39417</v>
-      </c>
-      <c r="B11">
-        <v>0.1041904222423965</v>
+        <v>37165</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14.524934134596732</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>39448</v>
-      </c>
-      <c r="B12">
-        <v>0.11873266083050354</v>
+        <v>37196</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13.682217605975037</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>39479</v>
-      </c>
-      <c r="B13">
-        <v>0.13313322361192095</v>
+        <v>37226</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13.608424834543777</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>39508</v>
-      </c>
-      <c r="B14">
-        <v>0.14634355323236387</v>
+        <v>37257</v>
+      </c>
+      <c r="B14" s="2">
+        <v>17.909856218083295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>39539</v>
-      </c>
-      <c r="B15">
-        <v>0.14311818517783625</v>
+        <v>37288</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.188831672959591</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>39569</v>
-      </c>
-      <c r="B16">
-        <v>0.15151149498510741</v>
+        <v>37316</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15.111403646422641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>39600</v>
-      </c>
-      <c r="B17">
-        <v>0.14910252635651547</v>
+        <v>37347</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16.077003414557595</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>39630</v>
-      </c>
-      <c r="B18">
-        <v>0.14869655397897941</v>
+        <v>37377</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15.022084497805835</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>39661</v>
-      </c>
-      <c r="B19">
-        <v>0.13609011967552406</v>
+        <v>37408</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15.911024661278688</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>39692</v>
-      </c>
-      <c r="B20">
-        <v>0.13487226260633894</v>
+        <v>37438</v>
+      </c>
+      <c r="B20" s="2">
+        <v>15.426122981760457</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>39722</v>
-      </c>
-      <c r="B21">
-        <v>0.13013852900473957</v>
+        <v>37469</v>
+      </c>
+      <c r="B21" s="2">
+        <v>15.952750840335387</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>39753</v>
-      </c>
-      <c r="B22">
-        <v>0.12746000634226967</v>
+        <v>37500</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14.46548871450829</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>39783</v>
-      </c>
-      <c r="B23">
-        <v>0.1241798637858437</v>
+        <v>37530</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14.972588991844201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>39814</v>
-      </c>
-      <c r="B24">
-        <v>0.15013604366405553</v>
+        <v>37561</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15.189322594155364</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>39845</v>
-      </c>
-      <c r="B25">
-        <v>0.1703316330526842</v>
+        <v>37591</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15.422503660536979</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>39873</v>
-      </c>
-      <c r="B26">
-        <v>0.18411695067714232</v>
+        <v>37622</v>
+      </c>
+      <c r="B26" s="2">
+        <v>16.271519203210936</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>39904</v>
-      </c>
-      <c r="B27">
-        <v>0.16587152505285399</v>
+        <v>37653</v>
+      </c>
+      <c r="B27" s="2">
+        <v>15.838374133677149</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>39934</v>
-      </c>
-      <c r="B28">
-        <v>0.15317947850969121</v>
+        <v>37681</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13.105699311140615</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>39965</v>
-      </c>
-      <c r="B29">
-        <v>0.15396269522821507</v>
+        <v>37712</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15.005946521142869</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>39995</v>
-      </c>
-      <c r="B30">
-        <v>0.1558737602330024</v>
+        <v>37742</v>
+      </c>
+      <c r="B30" s="2">
+        <v>12.816057870033204</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>40026</v>
-      </c>
-      <c r="B31">
-        <v>0.16406118560957669</v>
+        <v>37773</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14.10509312435817</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>40057</v>
-      </c>
-      <c r="B32">
-        <v>0.1584321438717558</v>
+        <v>37803</v>
+      </c>
+      <c r="B32" s="2">
+        <v>14.514325563095424</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>40087</v>
-      </c>
-      <c r="B33">
-        <v>0.15125399040596871</v>
+        <v>37834</v>
+      </c>
+      <c r="B33" s="2">
+        <v>14.378067800697803</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>40118</v>
-      </c>
-      <c r="B34">
-        <v>0.1463317351202196</v>
+        <v>37865</v>
+      </c>
+      <c r="B34" s="2">
+        <v>14.234766629217132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>40148</v>
-      </c>
-      <c r="B35">
-        <v>0.14633535000056158</v>
+        <v>37895</v>
+      </c>
+      <c r="B35" s="2">
+        <v>13.522169959208757</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>40179</v>
-      </c>
-      <c r="B36">
-        <v>0.15692098728186019</v>
+        <v>37926</v>
+      </c>
+      <c r="B36" s="2">
+        <v>12.635211630274364</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>40210</v>
-      </c>
-      <c r="B37">
-        <v>0.15860777978644053</v>
+        <v>37956</v>
+      </c>
+      <c r="B37" s="2">
+        <v>12.558278405355342</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>40238</v>
-      </c>
-      <c r="B38">
-        <v>0.15530486249747152</v>
+        <v>37987</v>
+      </c>
+      <c r="B38" s="2">
+        <v>17.256432645324725</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>40269</v>
-      </c>
-      <c r="B39">
-        <v>0.15361251285963498</v>
+        <v>38018</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15.753438545792985</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>40299</v>
-      </c>
-      <c r="B40">
-        <v>0.14796544523513488</v>
+        <v>38047</v>
+      </c>
+      <c r="B40" s="2">
+        <v>13.522674534509044</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40330</v>
-      </c>
-      <c r="B41">
-        <v>0.14976405068440796</v>
+        <v>38078</v>
+      </c>
+      <c r="B41" s="2">
+        <v>14.68099405661674</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40360</v>
-      </c>
-      <c r="B42">
-        <v>0.14743418703883374</v>
+        <v>38108</v>
+      </c>
+      <c r="B42" s="2">
+        <v>13.832959328298999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>40391</v>
-      </c>
-      <c r="B43">
-        <v>0.14574115930094747</v>
+        <v>38139</v>
+      </c>
+      <c r="B43" s="2">
+        <v>14.073592702438365</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>40422</v>
-      </c>
-      <c r="B44">
-        <v>0.13871466730764012</v>
+        <v>38169</v>
+      </c>
+      <c r="B44" s="2">
+        <v>12.90874880701794</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40452</v>
-      </c>
-      <c r="B45">
-        <v>0.13470355042948526</v>
+        <v>38200</v>
+      </c>
+      <c r="B45" s="2">
+        <v>13.056943458531144</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>40483</v>
-      </c>
-      <c r="B46">
-        <v>0.1279488009744853</v>
+        <v>38231</v>
+      </c>
+      <c r="B46" s="2">
+        <v>12.285073200033224</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>40513</v>
-      </c>
-      <c r="B47">
-        <v>0.12695558083346392</v>
+        <v>38261</v>
+      </c>
+      <c r="B47" s="2">
+        <v>12.285638235167037</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>40544</v>
-      </c>
-      <c r="B48">
-        <v>0.13534646223593982</v>
+        <v>38292</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11.836774945952012</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>40575</v>
-      </c>
-      <c r="B49">
-        <v>0.14174717590187033</v>
+        <v>38322</v>
+      </c>
+      <c r="B49" s="2">
+        <v>11.953942605918524</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>40603</v>
-      </c>
-      <c r="B50">
-        <v>0.14022643052305475</v>
+        <v>38353</v>
+      </c>
+      <c r="B50" s="2">
+        <v>13.262646301922926</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>40634</v>
-      </c>
-      <c r="B51">
-        <v>0.12808981450066673</v>
+        <v>38384</v>
+      </c>
+      <c r="B51" s="2">
+        <v>14.096902979451464</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>40664</v>
-      </c>
-      <c r="B52">
-        <v>0.1229852446736983</v>
+        <v>38412</v>
+      </c>
+      <c r="B52" s="2">
+        <v>12.954344315861915</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>40695</v>
-      </c>
-      <c r="B53">
-        <v>0.12996458541411193</v>
+        <v>38443</v>
+      </c>
+      <c r="B53" s="2">
+        <v>12.020492431730782</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>40725</v>
-      </c>
-      <c r="B54">
-        <v>0.12818546646796747</v>
+        <v>38473</v>
+      </c>
+      <c r="B54" s="2">
+        <v>12.490683577333161</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>40756</v>
-      </c>
-      <c r="B55">
-        <v>0.12905136405708748</v>
+        <v>38504</v>
+      </c>
+      <c r="B55" s="2">
+        <v>11.542675627571272</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>40787</v>
-      </c>
-      <c r="B56">
-        <v>0.12116633772179645</v>
+        <v>38534</v>
+      </c>
+      <c r="B56" s="2">
+        <v>12.048355685604447</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>40817</v>
-      </c>
-      <c r="B57">
-        <v>0.11521616432246158</v>
+        <v>38565</v>
+      </c>
+      <c r="B57" s="2">
+        <v>11.718827564184519</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>40848</v>
-      </c>
-      <c r="B58">
-        <v>0.11624233417373783</v>
+        <v>38596</v>
+      </c>
+      <c r="B58" s="2">
+        <v>11.333253055193566</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>40878</v>
-      </c>
-      <c r="B59">
-        <v>0.1137249866912404</v>
+        <v>38626</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9.8984997870277684</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>40909</v>
-      </c>
-      <c r="B60">
-        <v>0.12709772074677766</v>
+        <v>38657</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10.281330827408848</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>40940</v>
-      </c>
-      <c r="B61">
-        <v>0.12979787932971454</v>
+        <v>38687</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10.272246201875628</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>40969</v>
-      </c>
-      <c r="B62">
-        <v>0.13947141497773399</v>
+        <v>38718</v>
+      </c>
+      <c r="B62" s="2">
+        <v>13.36962875808833</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>41000</v>
-      </c>
-      <c r="B63">
-        <v>0.13420113807459969</v>
+        <v>38749</v>
+      </c>
+      <c r="B63" s="2">
+        <v>13.079196639846558</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>41030</v>
-      </c>
-      <c r="B64">
-        <v>0.13465582006296981</v>
+        <v>38777</v>
+      </c>
+      <c r="B64" s="2">
+        <v>11.367138289572786</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>41061</v>
-      </c>
-      <c r="B65">
-        <v>0.1357910959052743</v>
+        <v>38808</v>
+      </c>
+      <c r="B65" s="2">
+        <v>12.064262335516069</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>41091</v>
-      </c>
-      <c r="B66">
-        <v>0.13549285445935452</v>
+        <v>38838</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11.868760052957542</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>41122</v>
-      </c>
-      <c r="B67">
-        <v>0.13112428702763912</v>
+        <v>38869</v>
+      </c>
+      <c r="B67" s="2">
+        <v>10.477284559212622</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>41153</v>
-      </c>
-      <c r="B68">
-        <v>0.12479455651246733</v>
+        <v>38899</v>
+      </c>
+      <c r="B68" s="2">
+        <v>12.299300000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>41183</v>
-      </c>
-      <c r="B69">
-        <v>0.12175851309401509</v>
+        <v>38930</v>
+      </c>
+      <c r="B69" s="2">
+        <v>13.043927969</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41214</v>
-      </c>
-      <c r="B70">
-        <v>0.11889698166207827</v>
+        <v>38961</v>
+      </c>
+      <c r="B70" s="2">
+        <v>12.914994537</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>41244</v>
-      </c>
-      <c r="B71">
-        <v>0.11632071260731845</v>
+        <v>38991</v>
+      </c>
+      <c r="B71" s="2">
+        <v>11.355034134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>41275</v>
-      </c>
-      <c r="B72">
-        <v>0.12628207384857124</v>
+        <v>39022</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10.996331574999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>41306</v>
-      </c>
-      <c r="B73">
-        <v>0.13657711841426118</v>
+        <v>39052</v>
+      </c>
+      <c r="B73" s="2">
+        <v>11.840258159999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>41334</v>
-      </c>
-      <c r="B74">
-        <v>0.14656039182071232</v>
+        <v>39083</v>
+      </c>
+      <c r="B74" s="2">
+        <v>14.279199999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>41365</v>
-      </c>
-      <c r="B75">
-        <v>0.13560722383970378</v>
+        <v>39114</v>
+      </c>
+      <c r="B75" s="2">
+        <v>12.856199999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>41395</v>
-      </c>
-      <c r="B76">
-        <v>0.12925543605951054</v>
+        <v>39142</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12.033300000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>41426</v>
-      </c>
-      <c r="B77">
-        <v>0.11825323623797607</v>
+        <v>39173</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10.8079</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>41456</v>
-      </c>
-      <c r="B78">
-        <v>0.11318840260846465</v>
+        <v>39203</v>
+      </c>
+      <c r="B78" s="2">
+        <v>11.701700000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>41487</v>
-      </c>
-      <c r="B79">
-        <v>0.10937171731020705</v>
+        <v>39234</v>
+      </c>
+      <c r="B79" s="2">
+        <v>11.198700000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>41518</v>
-      </c>
-      <c r="B80">
-        <v>0.10734146334178146</v>
+        <v>39264</v>
+      </c>
+      <c r="B80" s="2">
+        <v>11.354100000000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>41548</v>
-      </c>
-      <c r="B81">
-        <v>0.10376468240630653</v>
+        <v>39295</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10.861800000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>41579</v>
-      </c>
-      <c r="B82">
-        <v>0.1021269344586591</v>
+        <v>39326</v>
+      </c>
+      <c r="B82" s="2">
+        <v>10.870900000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>41609</v>
-      </c>
-      <c r="B83">
-        <v>0.10109230113056772</v>
+        <v>39356</v>
+      </c>
+      <c r="B83" s="2">
+        <v>10.2119</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>41640</v>
-      </c>
-      <c r="B84">
-        <v>0.11704523184740429</v>
+        <v>39387</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9.4884000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>41671</v>
-      </c>
-      <c r="B85">
-        <v>0.12279433979804084</v>
+        <v>39417</v>
+      </c>
+      <c r="B85" s="2">
+        <v>9.9234000000000009</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>41699</v>
-      </c>
-      <c r="B86">
-        <v>0.12164840948733457</v>
+        <v>39448</v>
+      </c>
+      <c r="B86" s="2">
+        <v>13.297499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>41730</v>
-      </c>
-      <c r="B87">
-        <v>0.11025350607040137</v>
+        <v>39479</v>
+      </c>
+      <c r="B87" s="2">
+        <v>12.194599999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>41760</v>
-      </c>
-      <c r="B88">
-        <v>0.1066724166182593</v>
+        <v>39508</v>
+      </c>
+      <c r="B88" s="2">
+        <v>11.338100000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>41791</v>
-      </c>
-      <c r="B89">
-        <v>0.10441001994654248</v>
+        <v>39539</v>
+      </c>
+      <c r="B89" s="2">
+        <v>11.079000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>41821</v>
-      </c>
-      <c r="B90">
-        <v>0.1056764995822649</v>
+        <v>39569</v>
+      </c>
+      <c r="B90" s="2">
+        <v>10.812099999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>41852</v>
-      </c>
-      <c r="B91">
-        <v>0.10151865537420419</v>
+        <v>39600</v>
+      </c>
+      <c r="B91" s="2">
+        <v>11.4137</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>41883</v>
-      </c>
-      <c r="B92">
-        <v>0.10387222350232726</v>
+        <v>39630</v>
+      </c>
+      <c r="B92" s="2">
+        <v>12.2102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>41913</v>
-      </c>
-      <c r="B93">
-        <v>0.10180576281162165</v>
+        <v>39661</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11.4262</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>41944</v>
-      </c>
-      <c r="B94">
-        <v>0.10475579599845423</v>
+        <v>39692</v>
+      </c>
+      <c r="B94" s="2">
+        <v>11.046799999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>41974</v>
-      </c>
-      <c r="B95">
-        <v>0.10613597953262395</v>
+        <v>39722</v>
+      </c>
+      <c r="B95" s="2">
+        <v>10.1815</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>42005</v>
-      </c>
-      <c r="B96">
-        <v>0.11953053180507284</v>
+        <v>39753</v>
+      </c>
+      <c r="B96" s="2">
+        <v>10.9115</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>42036</v>
-      </c>
-      <c r="B97">
-        <v>0.12649051846404369</v>
+        <v>39783</v>
+      </c>
+      <c r="B97" s="2">
+        <v>10.773099999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B98">
-        <v>0.1317183913900547</v>
+        <v>39814</v>
+      </c>
+      <c r="B98" s="2">
+        <v>14.4724</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>42095</v>
-      </c>
-      <c r="B99">
-        <v>0.12584328928003657</v>
+        <v>39845</v>
+      </c>
+      <c r="B99" s="2">
+        <v>12.770899999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>42125</v>
-      </c>
-      <c r="B100">
-        <v>0.11978980116331223</v>
+        <v>39873</v>
+      </c>
+      <c r="B100" s="2">
+        <v>12.1859</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>42156</v>
-      </c>
-      <c r="B101">
-        <v>0.11572608014983013</v>
+        <v>39904</v>
+      </c>
+      <c r="B101" s="2">
+        <v>12.118600000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>42186</v>
-      </c>
-      <c r="B102">
-        <v>0.10750039823371316</v>
+        <v>39934</v>
+      </c>
+      <c r="B102" s="2">
+        <v>11.7578</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>42217</v>
-      </c>
-      <c r="B103">
-        <v>0.10807806152128578</v>
+        <v>39965</v>
+      </c>
+      <c r="B103" s="2">
+        <v>11.597</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>42248</v>
-      </c>
-      <c r="B104">
-        <v>0.10824355956612729</v>
+        <v>39995</v>
+      </c>
+      <c r="B104" s="2">
+        <v>12.842599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>42278</v>
-      </c>
-      <c r="B105">
-        <v>0.1059712733980671</v>
+        <v>40026</v>
+      </c>
+      <c r="B105" s="2">
+        <v>11.9361</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>42309</v>
-      </c>
-      <c r="B106">
-        <v>9.8899969083314845E-2</v>
+        <v>40057</v>
+      </c>
+      <c r="B106" s="2">
+        <v>12.440300000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>42339</v>
-      </c>
-      <c r="B107">
-        <v>9.9314718826176124E-2</v>
+        <v>40087</v>
+      </c>
+      <c r="B107" s="2">
+        <v>11.756500000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B108">
-        <v>0.12311160080526229</v>
+        <v>40118</v>
+      </c>
+      <c r="B108" s="2">
+        <v>11.3871</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>42401</v>
-      </c>
-      <c r="B109">
-        <v>0.13591426491192829</v>
+        <v>40148</v>
+      </c>
+      <c r="B109" s="2">
+        <v>11.312200000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>42430</v>
-      </c>
-      <c r="B110">
-        <v>0.14275423109923072</v>
+        <v>40179</v>
+      </c>
+      <c r="B110" s="2">
+        <v>14.8787</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>42461</v>
-      </c>
-      <c r="B111">
-        <v>0.11815767223502242</v>
+        <v>40210</v>
+      </c>
+      <c r="B111" s="2">
+        <v>12.694699999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>42491</v>
-      </c>
-      <c r="B112">
-        <v>0.10881536095431697</v>
+        <v>40238</v>
+      </c>
+      <c r="B112" s="2">
+        <v>11.959</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>42522</v>
-      </c>
-      <c r="B113">
-        <v>0.10419044960706128</v>
+        <v>40269</v>
+      </c>
+      <c r="B113" s="2">
+        <v>12.4399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>42552</v>
-      </c>
-      <c r="B114">
-        <v>0.11542988942837441</v>
+        <v>40299</v>
+      </c>
+      <c r="B114" s="2">
+        <v>12.263400000000001</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>42583</v>
-      </c>
-      <c r="B115">
-        <v>0.11505310534953123</v>
+        <v>40330</v>
+      </c>
+      <c r="B115" s="2">
+        <v>11.9801</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>42614</v>
-      </c>
-      <c r="B116">
-        <v>0.11034323002565102</v>
+        <v>40360</v>
+      </c>
+      <c r="B116" s="2">
+        <v>12.8583</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>42644</v>
-      </c>
-      <c r="B117">
-        <v>0.10174431157363112</v>
+        <v>40391</v>
+      </c>
+      <c r="B117" s="2">
+        <v>11.3779</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>42675</v>
-      </c>
-      <c r="B118">
-        <v>9.9103445588605149E-2</v>
+        <v>40422</v>
+      </c>
+      <c r="B118" s="2">
+        <v>10.8675</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>42705</v>
-      </c>
-      <c r="B119">
-        <v>0.10152798633883328</v>
+        <v>40452</v>
+      </c>
+      <c r="B119" s="2">
+        <v>10.452500000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B120">
-        <v>0.11811846165957421</v>
+        <v>40483</v>
+      </c>
+      <c r="B120" s="2">
+        <v>10.934100000000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B121">
-        <v>0.12676349633300243</v>
+        <v>40513</v>
+      </c>
+      <c r="B121" s="2">
+        <v>11.2264</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B122">
-        <v>0.12878079488792735</v>
+        <v>40544</v>
+      </c>
+      <c r="B122" s="2">
+        <v>13.8965</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>42826</v>
-      </c>
-      <c r="B123">
-        <v>0.11631742466256463</v>
+        <v>40575</v>
+      </c>
+      <c r="B123" s="2">
+        <v>13.1393</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>42856</v>
-      </c>
-      <c r="B124">
-        <v>0.11155109543828252</v>
+        <v>40603</v>
+      </c>
+      <c r="B124" s="2">
+        <v>10.9483</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B125">
-        <v>0.10857008328706275</v>
+        <v>40634</v>
+      </c>
+      <c r="B125" s="2">
+        <v>11.2743</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>42917</v>
-      </c>
-      <c r="B126">
-        <v>0.11352793638181362</v>
+        <v>40664</v>
+      </c>
+      <c r="B126" s="2">
+        <v>11.553599999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>42948</v>
-      </c>
-      <c r="B127">
-        <v>0.11713303952728073</v>
+        <v>40695</v>
+      </c>
+      <c r="B127" s="2">
+        <v>11.036</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B128">
-        <v>0.12150109542880089</v>
+        <v>40725</v>
+      </c>
+      <c r="B128" s="2">
+        <v>11.704000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>43009</v>
-      </c>
-      <c r="B129">
-        <v>0.11251509406810944</v>
+        <v>40756</v>
+      </c>
+      <c r="B129" s="2">
+        <v>10.415699999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>43040</v>
-      </c>
-      <c r="B130">
-        <v>0.11285652101890088</v>
+        <v>40787</v>
+      </c>
+      <c r="B130" s="2">
+        <v>9.9278999999999993</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B131">
-        <v>0.10616077710105615</v>
+        <v>40817</v>
+      </c>
+      <c r="B131" s="2">
+        <v>9.3596000000000004</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>43101</v>
-      </c>
-      <c r="B132">
-        <v>0.12762617125036568</v>
+        <v>40848</v>
+      </c>
+      <c r="B132" s="2">
+        <v>9.4934999999999992</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>43132</v>
-      </c>
-      <c r="B133">
-        <v>0.13641224452947739</v>
+        <v>40878</v>
+      </c>
+      <c r="B133" s="2">
+        <v>10.0677</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B134">
-        <v>0.14152657095694052</v>
+        <v>40909</v>
+      </c>
+      <c r="B134" s="2">
+        <v>12.7911</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>43191</v>
-      </c>
-      <c r="B135">
-        <v>0.13520746620571489</v>
+        <v>40940</v>
+      </c>
+      <c r="B135" s="2">
+        <v>12.074999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B136">
-        <v>0.12752453462553787</v>
+        <v>40969</v>
+      </c>
+      <c r="B136" s="2">
+        <v>10.5024</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B137">
-        <v>0.13099416342851961</v>
+        <v>41000</v>
+      </c>
+      <c r="B137" s="2">
+        <v>11.087</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>43282</v>
-      </c>
-      <c r="B138">
-        <v>0.12075449744454499</v>
+        <v>41030</v>
+      </c>
+      <c r="B138" s="2">
+        <v>10.994999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>43313</v>
-      </c>
-      <c r="B139">
-        <v>0.12424111632613771</v>
+        <v>41061</v>
+      </c>
+      <c r="B139" s="2">
+        <v>10.2437</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B140">
-        <v>0.12253423786519939</v>
+        <v>41091</v>
+      </c>
+      <c r="B140" s="2">
+        <v>11.155799999999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>43374</v>
-      </c>
-      <c r="B141">
-        <v>0.121437521328113</v>
+        <v>41122</v>
+      </c>
+      <c r="B141" s="2">
+        <v>9.9893000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B142">
-        <v>0.11591323915641513</v>
+        <v>41153</v>
+      </c>
+      <c r="B142" s="2">
+        <v>10.144399999999999</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B143">
-        <v>0.11184197502050018</v>
+        <v>41183</v>
+      </c>
+      <c r="B143" s="2">
+        <v>9.1692</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B144">
-        <v>0.12749978457855088</v>
+        <v>41214</v>
+      </c>
+      <c r="B144" s="2">
+        <v>9.4619</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>43497</v>
-      </c>
-      <c r="B145">
-        <v>0.13781998666165535</v>
+        <v>41244</v>
+      </c>
+      <c r="B145" s="2">
+        <v>9.9404000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>43525</v>
-      </c>
-      <c r="B146">
-        <v>0.14502095779246924</v>
+        <v>41275</v>
+      </c>
+      <c r="B146" s="2">
+        <v>12.3415</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B147">
-        <v>0.13651525677856896</v>
+        <v>41306</v>
+      </c>
+      <c r="B147" s="2">
+        <v>12.0105</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B148">
-        <v>0.13443105638926792</v>
+        <v>41334</v>
+      </c>
+      <c r="B148" s="2">
+        <v>10.383800000000001</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B149">
-        <v>0.13676686863118337</v>
+        <v>41365</v>
+      </c>
+      <c r="B149" s="2">
+        <v>10.4518</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B150">
-        <v>0.13580679179056848</v>
+        <v>41395</v>
+      </c>
+      <c r="B150" s="2">
+        <v>9.8203999999999994</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B151">
-        <v>0.13594307707435899</v>
+        <v>41426</v>
+      </c>
+      <c r="B151" s="2">
+        <v>9.5105000000000004</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B152">
-        <v>0.12802927053092047</v>
+        <v>41456</v>
+      </c>
+      <c r="B152" s="2">
+        <v>10.162599999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B153">
-        <v>0.12541254753476624</v>
+        <v>41487</v>
+      </c>
+      <c r="B153" s="2">
+        <v>9.6613000000000007</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B154">
-        <v>0.11761352259805219</v>
+        <v>41518</v>
+      </c>
+      <c r="B154" s="2">
+        <v>9.1692</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B155">
-        <v>0.1180682429325413</v>
+        <v>41548</v>
+      </c>
+      <c r="B155" s="2">
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B156">
-        <v>0.12016038797482136</v>
+        <v>41579</v>
+      </c>
+      <c r="B156" s="2">
+        <v>8.6267999999999994</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B157">
-        <v>0.12824930344032162</v>
+        <v>41609</v>
+      </c>
+      <c r="B157" s="2">
+        <v>8.6472999999999995</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B158">
-        <v>0.13957707335261327</v>
+        <v>41640</v>
+      </c>
+      <c r="B158" s="2">
+        <v>11.532400000000001</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B159">
-        <v>0.18524018619376967</v>
+        <v>41671</v>
+      </c>
+      <c r="B159" s="2">
+        <v>11.0878</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B160">
-        <v>0.22796290407329875</v>
+        <v>41699</v>
+      </c>
+      <c r="B160" s="2">
+        <v>9.8445</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B161">
-        <v>0.26690908794473089</v>
+        <v>41730</v>
+      </c>
+      <c r="B161" s="2">
+        <v>9.3084000000000007</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B162">
-        <v>0.26288452721249655</v>
+        <v>41760</v>
+      </c>
+      <c r="B162" s="2">
+        <v>9.0673999999999992</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>44044</v>
-      </c>
-      <c r="B163">
-        <v>0.24479691945698046</v>
+        <v>41791</v>
+      </c>
+      <c r="B163" s="2">
+        <v>9.4018999999999995</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B164">
-        <v>0.21617595655885322</v>
+        <v>41821</v>
+      </c>
+      <c r="B164" s="2">
+        <v>9.6865000000000006</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44105</v>
-      </c>
-      <c r="B165">
-        <v>0.18274851072565965</v>
+        <v>41852</v>
+      </c>
+      <c r="B165" s="2">
+        <v>9.16</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B166">
-        <v>0.17265678955089203</v>
+        <v>41883</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8.6057000000000006</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B167">
-        <v>0.16386667303141866</v>
+        <v>41913</v>
+      </c>
+      <c r="B167" s="2">
+        <v>8.0952999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B168">
-        <v>0.17056779639513148</v>
+        <v>41944</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8.0622000000000007</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B169">
-        <v>0.16899399797218037</v>
+        <v>41974</v>
+      </c>
+      <c r="B169" s="2">
+        <v>9.0374999999999996</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B170">
-        <v>0.17712796577979634</v>
+        <v>42005</v>
+      </c>
+      <c r="B170" s="2">
+        <v>11.1517</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44287</v>
-      </c>
-      <c r="B171">
-        <v>0.17401803319018846</v>
+        <v>42036</v>
+      </c>
+      <c r="B171" s="2">
+        <v>10.227600000000001</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44317</v>
-      </c>
-      <c r="B172">
-        <v>0.1652459175955257</v>
+        <v>42064</v>
+      </c>
+      <c r="B172" s="2">
+        <v>9.1227999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B173">
-        <v>0.16015828760066445</v>
+        <v>42095</v>
+      </c>
+      <c r="B173" s="2">
+        <v>9.7372999999999994</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44378</v>
-      </c>
-      <c r="B174">
-        <v>0.15366553010528775</v>
+        <v>42125</v>
+      </c>
+      <c r="B174" s="2">
+        <v>9.2216000000000005</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44409</v>
-      </c>
-      <c r="B175">
-        <v>0.15160010960353312</v>
+        <v>42156</v>
+      </c>
+      <c r="B175" s="2">
+        <v>8.4986999999999995</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B176">
-        <v>0.14493302118964155</v>
+        <v>42186</v>
+      </c>
+      <c r="B176" s="2">
+        <v>9.2236999999999991</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B177">
-        <v>0.13789171394931971</v>
+        <v>42217</v>
+      </c>
+      <c r="B177" s="2">
+        <v>9.3035999999999994</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B178">
-        <v>0.13692282563051988</v>
+        <v>42248</v>
+      </c>
+      <c r="B178" s="2">
+        <v>9.0681999999999992</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B179">
-        <v>0.1215311385533524</v>
+        <v>42278</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8.4384999999999994</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B180">
-        <v>0.12097422787961153</v>
+        <v>42309</v>
+      </c>
+      <c r="B180" s="2">
+        <v>7.5631000000000004</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44593</v>
-      </c>
-      <c r="B181">
-        <v>0.11715998445830862</v>
+        <v>42339</v>
+      </c>
+      <c r="B181" s="2">
+        <v>8.8226999999999993</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44621</v>
-      </c>
-      <c r="B182">
-        <v>0.12405915233796726</v>
+        <v>42370</v>
+      </c>
+      <c r="B182" s="2">
+        <v>12.1784</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44652</v>
-      </c>
-      <c r="B183">
-        <v>0.11128068239388869</v>
+        <v>42401</v>
+      </c>
+      <c r="B183" s="2">
+        <v>10.367800000000001</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44682</v>
-      </c>
-      <c r="B184">
-        <v>0.10730922088801333</v>
+        <v>42430</v>
+      </c>
+      <c r="B184" s="2">
+        <v>10.464600000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B185">
-        <v>0.10473315920275807</v>
+        <v>42461</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9.3194999999999997</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B186">
-        <v>0.11216722593861662</v>
+        <v>42491</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9.2373999999999992</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44774</v>
-      </c>
-      <c r="B187">
-        <v>0.11531361848328507</v>
+        <v>42522</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9.19</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44805</v>
-      </c>
-      <c r="B188">
-        <v>0.11297812175341866</v>
+        <v>42552</v>
+      </c>
+      <c r="B188" s="2">
+        <v>10.2006</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B189">
-        <v>0.10934016255059756</v>
+        <v>42583</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9.2325999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>44866</v>
-      </c>
-      <c r="B190">
-        <v>9.3091540452769225E-2</v>
+        <v>42614</v>
+      </c>
+      <c r="B190" s="2">
+        <v>8.8534000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>44896</v>
-      </c>
-      <c r="B191">
-        <v>8.9916393494294908E-2</v>
+        <v>42644</v>
+      </c>
+      <c r="B191" s="2">
+        <v>8.6280000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B192">
-        <v>9.4090893536631567E-2</v>
+        <v>42675</v>
+      </c>
+      <c r="B192" s="2">
+        <v>7.7732000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B193">
-        <v>0.10334031753023083</v>
+        <v>42705</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9.0970999999999993</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B194">
-        <v>0.10111386475413892</v>
+        <v>42736</v>
+      </c>
+      <c r="B194" s="2">
+        <v>11.956899999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>45017</v>
-      </c>
-      <c r="B195">
-        <v>9.4765907207066694E-2</v>
+        <v>42767</v>
+      </c>
+      <c r="B195" s="2">
+        <v>10.872999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>45047</v>
-      </c>
-      <c r="B196">
-        <v>9.4063163627377613E-2</v>
+        <v>42795</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9.9046000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>45078</v>
-      </c>
-      <c r="B197">
-        <v>9.1554706576175746E-2</v>
+        <v>42826</v>
+      </c>
+      <c r="B197" s="2">
+        <v>9.1358999999999995</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>45108</v>
-      </c>
-      <c r="B198">
-        <v>8.6210198331368032E-2</v>
+        <v>42856</v>
+      </c>
+      <c r="B198" s="2">
+        <v>9.8379999999999992</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>45139</v>
-      </c>
-      <c r="B199">
-        <v>8.3156365313333841E-2</v>
+        <v>42887</v>
+      </c>
+      <c r="B199" s="2">
+        <v>8.9772999999999996</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>45170</v>
-      </c>
-      <c r="B200">
-        <v>8.6584097440933594E-2</v>
+        <v>42917</v>
+      </c>
+      <c r="B200" s="2">
+        <v>9.9404000000000003</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>45200</v>
-      </c>
-      <c r="B201">
-        <v>8.6201551859149017E-2</v>
+        <v>42948</v>
+      </c>
+      <c r="B201" s="2">
+        <v>9.5167999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B202">
-        <v>8.4436289778212451E-2</v>
+        <v>42979</v>
+      </c>
+      <c r="B202" s="2">
+        <v>9.5469000000000008</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B203">
-        <v>8.069107534328164E-2</v>
+        <v>43009</v>
+      </c>
+      <c r="B203" s="2">
+        <v>8.7399000000000004</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B204">
-        <v>8.8653175324787087E-2</v>
+        <v>43040</v>
+      </c>
+      <c r="B204" s="2">
+        <v>8.7647999999999993</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B205">
-        <v>9.8815005725847463E-2</v>
+        <v>43070</v>
+      </c>
+      <c r="B205" s="2">
+        <v>8.9122000000000003</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B206">
-        <v>0.10865789052270791</v>
+        <v>43101</v>
+      </c>
+      <c r="B206" s="2">
+        <v>12.1374</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B207">
-        <v>0.1008016574149076</v>
+        <v>43132</v>
+      </c>
+      <c r="B207" s="2">
+        <v>11.1882</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B208">
-        <v>9.4325407163614206E-2</v>
+        <v>43160</v>
+      </c>
+      <c r="B208" s="2">
+        <v>9.7715999999999994</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>45444</v>
-      </c>
-      <c r="B209">
-        <v>8.7713248142087974E-2</v>
+        <v>43191</v>
+      </c>
+      <c r="B209" s="2">
+        <v>9.7292000000000005</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>45474</v>
-      </c>
-      <c r="B210">
-        <v>9.0369593666664E-2</v>
+        <v>43221</v>
+      </c>
+      <c r="B210" s="2">
+        <v>9.9794999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B211">
-        <v>8.3347332241301808E-2</v>
+        <v>43252</v>
+      </c>
+      <c r="B211" s="2">
+        <v>9.3085000000000004</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B212" s="2">
+        <v>10.042299999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B213" s="2">
+        <v>9.4291999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B214" s="2">
+        <v>9.6707000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B215" s="2">
+        <v>9.3614999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B216" s="2">
+        <v>8.9905000000000008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B217" s="2">
+        <v>9.9891000000000005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B218" s="2">
+        <v>13.075200000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B219" s="2">
+        <v>12.092599999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B220" s="2">
+        <v>11.1814</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B221" s="2">
+        <v>10.656599999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B222" s="2">
+        <v>10.9519</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B223" s="2">
+        <v>9.7228999999999992</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B224" s="2">
+        <v>11.2807</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B225" s="2">
+        <v>11.1973</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B226" s="2">
+        <v>10.8003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B227" s="2">
+        <v>10.1236</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B228" s="2">
+        <v>9.6186000000000007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B229" s="2">
+        <v>9.9497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B230" s="2">
+        <v>13.458500000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B231" s="2">
+        <v>12.8131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B232" s="2">
+        <v>13.1828</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B233" s="2">
+        <v>20.485299999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B234" s="2">
+        <v>21.972000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B235" s="2">
+        <v>20.359100000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B236" s="2">
+        <v>20.9147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B237" s="2">
+        <v>17.442699999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B238" s="2">
+        <v>16.2928</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B239" s="2">
+        <v>15.2814</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B240" s="2">
+        <v>13.912800000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B241" s="2">
+        <v>13.914199999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B242" s="2">
+        <v>17.563300000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B243" s="2">
+        <v>15.5852</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B244" s="2">
+        <v>14.7255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B245" s="2">
+        <v>15.488</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B246" s="2">
+        <v>15.2042</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B247" s="2">
+        <v>14.646599999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B248" s="2">
+        <v>13.0585</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B249" s="2">
+        <v>12.8614</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B250" s="2">
+        <v>11.9613</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B251" s="2">
+        <v>11.995200000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B252" s="2">
+        <v>11.533099999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B253" s="2">
+        <v>11.096500000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B254" s="2">
+        <v>14.6473</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B255" s="2">
+        <v>12.905200000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B256" s="2">
+        <v>12.1212</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B257" s="2">
+        <v>11.1685</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B258" s="2">
+        <v>10.648300000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B259" s="2">
+        <v>11.261200000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B260" s="2">
+        <v>10.988899999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B261" s="2">
+        <v>10.6313</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B262" s="2">
+        <v>10.7484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B263" s="2">
+        <v>9.7210000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B264" s="2">
+        <v>9.5007999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B265" s="2">
+        <v>10.2727</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B266" s="2">
+        <v>13.7044</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B267" s="2">
+        <v>11.3531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B268" s="2">
+        <v>10.032500000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B269" s="2">
+        <v>10.7247</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B270" s="2">
+        <v>10.475099999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B271" s="2">
+        <v>9.3423096210000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B272" s="3">
+        <v>9.5728505641015751</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B273" s="3">
+        <v>9.2773719992695955</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B274" s="3">
+        <v>9.2526741803322139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B275" s="3">
+        <v>9.2309123842941094</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B276" s="3">
+        <v>9.0073861572210028</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B277" s="3">
+        <v>10.013717396181603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B278" s="3">
+        <v>12.661635826705913</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B279" s="3">
+        <v>11.666144792067652</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B280" s="3">
+        <v>11.285719499435782</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B281" s="3">
+        <v>10.646715730368971</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B282" s="3">
+        <v>10.305870827614305</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B283" s="3">
+        <v>10.268590171466832</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B284" s="3">
+        <v>9.9181446285116568</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B285" s="3">
+        <v>9.6626578419937097</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
         <v>45536</v>
       </c>
-      <c r="B212">
-        <v>7.790460103787282E-2</v>
+      <c r="B286" s="3">
+        <v>9.1344769517755928</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B287" s="3">
+        <v>9.1337601500858749</v>
       </c>
     </row>
   </sheetData>
